--- a/DOCUMENTOS/PLANTILLAS/usuarios.xlsx
+++ b/DOCUMENTOS/PLANTILLAS/usuarios.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>NOMBRE COMPLETO</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>USUARIO</t>
-  </si>
-  <si>
-    <t>TIPO USUARIO (administrador o abogado)</t>
   </si>
 </sst>
 </file>
@@ -660,11 +657,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1203,7 +1203,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -1225,9 +1225,7 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="D1" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
